--- a/templates/KeyDriver_Config_Template_Annotated.xlsx
+++ b/templates/KeyDriver_Config_Template_Annotated.xlsx
@@ -29,24 +29,24 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="004472C4"/>
+      <color rgb="00366092"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <sz val="9"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -61,18 +61,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7E6E6"/>
-        <bgColor rgb="00E7E6E6"/>
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,20 +74,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -459,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,168 +472,91 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="90" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>TURAS Key Driver Analysis - Configuration Template</t>
+          <t>KeyDriver Configuration Template - Instructions</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>This template configures key driver analysis to identify which variables drive your outcome metric.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Created: 2025-12-02</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SHEETS IN THIS TEMPLATE:</t>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>OVERVIEW</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Settings - Basic analysis parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Variables - Define outcome and driver variables</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>This template configures KeyDriver analysis for TURAS. It defines analysis settings and parameters.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>KEY DRIVER ANALYSIS:</t>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>HOW TO USE THIS TEMPLATE</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Identifies which independent variables (drivers) most influence your outcome</t>
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>• Configure analysis parameters in the Settings sheet</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Uses regression-based relative importance analysis</t>
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>• Fill in the 'Value' column with your project-specific values</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Reports standardized coefficients and relative weights</t>
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>• Required fields are highlighted in yellow</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>• Optional fields can be left as default or customized</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>QUICK START:</t>
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>• Save and run with TURAS module</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1. Update Settings sheet with your data file path</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  2. In Variables sheet, set Type="Outcome" for your dependent variable (1 variable)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  3. Set Type="Driver" for all independent variables</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  4. Optionally set Type="Weight" for survey weight variable</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  5. Save and run: turas_load("keydriver") then run analysis</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>DOCUMENTATION:</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Yellow rows = parameter documentation (Required?, Valid Values, Description)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Gray rows = example values</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Delete documentation rows before production use (optional)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>For detailed help, see: modules/keydriver/documentation/</t>
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>• All file paths can be relative to this config file location</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -639,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,201 +575,79 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>analysis_name</t>
         </is>
       </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Brand Health Drivers</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Optional</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Any text</t>
-        </is>
-      </c>
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>data_file</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>keydriver_data.csv</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>Descriptive name for analysis (appears in output)</t>
-        </is>
-      </c>
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>output_file</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>keydriver_results.xlsx</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>analysis_name</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>Brand Health Drivers</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>data_file</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Required</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>CSV, XLSX, SAV, RDS file path</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Path to data file (relative or absolute)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>data_file</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>keydriver_data.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>output_file</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>Required</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>XLSX file path</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>Output Excel file path</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>output_file</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>keydriver_results.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
           <t>min_sample_size</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Optional</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>Positive integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>Minimum sample size for analysis (default: 30)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>min_sample_size</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="B5" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B19"/>
-    <mergeCell ref="B14"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="B9"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -852,7 +658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,157 +672,108 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>VariableName</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>Required?</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Valid Values</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Description</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>overall_satisfaction</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Overall Satisfaction</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Required (column name)</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Outcome | Driver | Weight</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Display name for output</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>product_quality</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Product Quality</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>Variable name must match column in data. Set one Outcome (dependent variable), multiple Drivers (predictors), optional Weight variable.</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>customer_service</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Customer Service</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>overall_satisfaction</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Overall Satisfaction</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>value_for_money</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Value for Money</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>product_quality</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>brand_reputation</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Driver</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Product Quality</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>customer_service</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>Customer Service</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>value_for_money</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>Value for Money</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>brand_reputation</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Brand Reputation</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:C4"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>